--- a/ERP_메뉴정리_권한_담당자(Right).xlsx
+++ b/ERP_메뉴정리_권한_담당자(Right).xlsx
@@ -16,7 +16,7 @@
     <sheet name="구현일정" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">담당자목록!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">담당자목록!$A$1:$J$24</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>지출결의서 신청</t>
-  </si>
-  <si>
-    <t>지출결의서 조회 및 승인</t>
   </si>
   <si>
     <t>회계전표 조회</t>
@@ -180,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DVApply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DVApprove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AccountSlip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +289,6 @@
   </si>
   <si>
     <t>회계총무,임원,영업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회계총무,영업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,6 +542,64 @@
     <t>김정민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmDv</t>
+  </si>
+  <si>
+    <t>회계총무,임원,영업</t>
+  </si>
+  <si>
+    <t>지출결의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품대분류관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -867,13 +910,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,21 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1003,6 +1040,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1011,6 +1066,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1340,372 +1410,421 @@
     <col min="5" max="5" width="13.25" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
+      <c r="F1" s="47" t="s">
+        <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
-        <v>20</v>
+      <c r="G1" s="47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="39" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="25">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="40"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="40"/>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="30">
-        <v>0.8</v>
+      <c r="F5" s="25" t="s">
+        <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="18"/>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="G5" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="40"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="25">
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="41"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="25">
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
-        <v>21</v>
+    <row r="8" spans="1:7">
+      <c r="A8" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="38"/>
+      <c r="B9" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="38"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="38"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="41"/>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41"/>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="30">
-        <v>1</v>
+      <c r="F14" s="25" t="s">
+        <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="G14" s="25">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="40"/>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="40"/>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="40"/>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>58</v>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
       </c>
-      <c r="F15" s="30">
-        <v>0</v>
+      <c r="F18" s="25" t="s">
+        <v>156</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="30">
+      <c r="G18" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="18"/>
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="41"/>
+      <c r="B19" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="18"/>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="19"/>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="25">
         <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="16" t="s">
-        <v>23</v>
+      <c r="A20" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="25">
         <v>0.2</v>
       </c>
       <c r="H20">
@@ -1716,38 +1835,44 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="16"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="38"/>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="30">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="16"/>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="30">
+      <c r="G22" s="25">
         <v>1</v>
       </c>
       <c r="H22">
@@ -1758,22 +1883,47 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="16"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="38"/>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J23"/>
-  <mergeCells count="5">
+  <autoFilter ref="A1:J24"/>
+  <mergeCells count="11">
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A2:A7"/>
   </mergeCells>
@@ -1798,39 +1948,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="J1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="K1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="L1" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -1852,36 +2002,36 @@
       <c r="AD1" s="6"/>
     </row>
     <row r="2" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="I2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="J2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="K2" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6"/>
@@ -1904,8 +2054,8 @@
       <c r="AD2" s="6"/>
     </row>
     <row r="3" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A3" s="26" t="s">
-        <v>98</v>
+      <c r="A3" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1938,38 +2088,38 @@
       <c r="AD3" s="6"/>
     </row>
     <row r="4" spans="1:30" ht="60" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="6"/>
@@ -1992,27 +2142,27 @@
       <c r="AD4" s="6"/>
     </row>
     <row r="5" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A5" s="27" t="s">
-        <v>104</v>
+      <c r="A5" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="31">
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="26">
         <v>1</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>117</v>
+      <c r="F5" s="27" t="s">
+        <v>113</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>118</v>
+      <c r="G5" s="27" t="s">
+        <v>114</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>119</v>
+      <c r="H5" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -2038,8 +2188,8 @@
       <c r="AD5" s="6"/>
     </row>
     <row r="6" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A6" s="33" t="s">
-        <v>87</v>
+      <c r="A6" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -2072,8 +2222,8 @@
       <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A7" s="26" t="s">
-        <v>105</v>
+      <c r="A7" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -2106,38 +2256,38 @@
       <c r="AD7" s="6"/>
     </row>
     <row r="8" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A8" s="27" t="s">
-        <v>99</v>
+      <c r="A8" s="22" t="s">
+        <v>95</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>14</v>
+      <c r="B8" s="23" t="s">
+        <v>13</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>120</v>
+      <c r="C8" s="24" t="s">
+        <v>116</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>121</v>
+      <c r="D8" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>121</v>
+      <c r="E8" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>121</v>
+      <c r="F8" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>121</v>
+      <c r="G8" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>121</v>
+      <c r="H8" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>121</v>
+      <c r="I8" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>121</v>
+      <c r="J8" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>121</v>
+      <c r="K8" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="6"/>
@@ -2160,23 +2310,23 @@
       <c r="AD8" s="6"/>
     </row>
     <row r="9" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A9" s="27" t="s">
-        <v>104</v>
+      <c r="A9" s="22" t="s">
+        <v>100</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>106</v>
+      <c r="B9" s="23" t="s">
+        <v>102</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="29">
         <v>0.8</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="30">
         <v>0.3</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="30">
         <v>0.7</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>122</v>
+      <c r="F9" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2204,18 +2354,18 @@
       <c r="AD9" s="6"/>
     </row>
     <row r="10" spans="1:30" ht="129" customHeight="1" thickBot="1">
-      <c r="A10" s="33" t="s">
-        <v>87</v>
+      <c r="A10" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="36" t="s">
-        <v>123</v>
+      <c r="C10" s="31" t="s">
+        <v>119</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>143</v>
+      <c r="D10" s="44" t="s">
+        <v>139</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -2242,8 +2392,8 @@
       <c r="AD10" s="6"/>
     </row>
     <row r="11" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A11" s="26" t="s">
-        <v>107</v>
+      <c r="A11" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -2276,22 +2426,22 @@
       <c r="AD11" s="6"/>
     </row>
     <row r="12" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A12" s="27" t="s">
-        <v>99</v>
+      <c r="A12" s="22" t="s">
+        <v>95</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>13</v>
+      <c r="G12" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2318,17 +2468,17 @@
       <c r="AD12" s="6"/>
     </row>
     <row r="13" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A13" s="27" t="s">
-        <v>104</v>
+      <c r="A13" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="35">
+      <c r="E13" s="30">
         <v>0.4</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>124</v>
+      <c r="F13" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2356,8 +2506,8 @@
       <c r="AD13" s="6"/>
     </row>
     <row r="14" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A14" s="33" t="s">
-        <v>87</v>
+      <c r="A14" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -2390,8 +2540,8 @@
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A15" s="26" t="s">
-        <v>108</v>
+      <c r="A15" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="9"/>
@@ -2424,29 +2574,29 @@
       <c r="AD15" s="6"/>
     </row>
     <row r="16" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A16" s="27" t="s">
-        <v>99</v>
+      <c r="A16" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>125</v>
+      <c r="C16" s="34" t="s">
+        <v>121</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>125</v>
+      <c r="D16" s="34" t="s">
+        <v>121</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>126</v>
+      <c r="G16" s="24" t="s">
+        <v>122</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>126</v>
+      <c r="H16" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -2472,29 +2622,29 @@
       <c r="AD16" s="6"/>
     </row>
     <row r="17" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A17" s="27" t="s">
-        <v>104</v>
+      <c r="A17" s="22" t="s">
+        <v>100</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="35">
         <v>0</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="29">
         <v>0.3</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="29">
         <v>0.3</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="29">
         <v>0.2</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>127</v>
+      <c r="F17" s="24" t="s">
+        <v>123</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>128</v>
+      <c r="G17" s="24" t="s">
+        <v>124</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>129</v>
+      <c r="H17" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2520,8 +2670,8 @@
       <c r="AD17" s="6"/>
     </row>
     <row r="18" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A18" s="33" t="s">
-        <v>87</v>
+      <c r="A18" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -2554,8 +2704,8 @@
       <c r="AD18" s="6"/>
     </row>
     <row r="19" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A19" s="26" t="s">
-        <v>109</v>
+      <c r="A19" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -2588,35 +2738,35 @@
       <c r="AD19" s="6"/>
     </row>
     <row r="20" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A20" s="27" t="s">
-        <v>99</v>
+      <c r="A20" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="24" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="10"/>
@@ -2640,19 +2790,19 @@
       <c r="AD20" s="6"/>
     </row>
     <row r="21" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A21" s="27" t="s">
-        <v>104</v>
+      <c r="A21" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="35">
+      <c r="C21" s="30">
         <v>0.3</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="35">
+      <c r="E21" s="30">
         <v>0.9</v>
       </c>
-      <c r="F21" s="38" t="s">
-        <v>130</v>
+      <c r="F21" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2680,8 +2830,8 @@
       <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A22" s="33" t="s">
-        <v>87</v>
+      <c r="A22" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -2714,8 +2864,8 @@
       <c r="AD22" s="6"/>
     </row>
     <row r="23" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A23" s="26" t="s">
-        <v>110</v>
+      <c r="A23" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -2748,38 +2898,38 @@
       <c r="AD23" s="6"/>
     </row>
     <row r="24" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A24" s="27" t="s">
-        <v>99</v>
+      <c r="A24" s="22" t="s">
+        <v>95</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>18</v>
+      <c r="B24" s="23" t="s">
+        <v>17</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>18</v>
+      <c r="C24" s="24" t="s">
+        <v>17</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>18</v>
+      <c r="D24" s="24" t="s">
+        <v>17</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>18</v>
+      <c r="E24" s="24" t="s">
+        <v>17</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>11</v>
+      <c r="F24" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>11</v>
+      <c r="G24" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>11</v>
+      <c r="H24" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>11</v>
+      <c r="I24" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="J24" s="29" t="s">
-        <v>11</v>
+      <c r="J24" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="K24" s="29" t="s">
-        <v>11</v>
+      <c r="K24" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="6"/>
@@ -2802,25 +2952,25 @@
       <c r="AD24" s="6"/>
     </row>
     <row r="25" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A25" s="27" t="s">
-        <v>104</v>
+      <c r="A25" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="35">
+      <c r="C25" s="30">
         <v>0.3</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="30">
         <v>0.9</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="30">
         <v>1</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>130</v>
+      <c r="F25" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="38" t="s">
-        <v>131</v>
+      <c r="H25" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -2846,8 +2996,8 @@
       <c r="AD25" s="6"/>
     </row>
     <row r="26" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A26" s="33" t="s">
-        <v>87</v>
+      <c r="A26" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -2880,8 +3030,8 @@
       <c r="AD26" s="6"/>
     </row>
     <row r="27" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A27" s="26" t="s">
-        <v>111</v>
+      <c r="A27" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -2914,38 +3064,38 @@
       <c r="AD27" s="6"/>
     </row>
     <row r="28" spans="1:30" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A28" s="27" t="s">
-        <v>99</v>
+      <c r="A28" s="22" t="s">
+        <v>95</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>112</v>
+      <c r="B28" s="23" t="s">
+        <v>108</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>112</v>
+      <c r="C28" s="24" t="s">
+        <v>108</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="29" t="s">
-        <v>132</v>
+      <c r="I28" s="24" t="s">
+        <v>128</v>
       </c>
-      <c r="J28" s="29" t="s">
-        <v>132</v>
+      <c r="J28" s="24" t="s">
+        <v>128</v>
       </c>
-      <c r="K28" s="29" t="s">
-        <v>132</v>
+      <c r="K28" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="6"/>
@@ -2968,29 +3118,29 @@
       <c r="AD28" s="6"/>
     </row>
     <row r="29" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A29" s="27" t="s">
-        <v>104</v>
+      <c r="A29" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="41">
+      <c r="C29" s="36">
         <v>0.3</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="36">
         <v>0.4</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="36">
         <v>0.5</v>
       </c>
-      <c r="F29" s="38" t="s">
-        <v>133</v>
+      <c r="F29" s="33" t="s">
+        <v>129</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>134</v>
+      <c r="G29" s="33" t="s">
+        <v>130</v>
       </c>
-      <c r="H29" s="38" t="s">
-        <v>135</v>
+      <c r="H29" s="33" t="s">
+        <v>131</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="30">
         <v>0.1</v>
       </c>
       <c r="J29" s="10"/>
@@ -3016,21 +3166,21 @@
       <c r="AD29" s="6"/>
     </row>
     <row r="30" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A30" s="33" t="s">
-        <v>87</v>
+      <c r="A30" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="37" t="s">
-        <v>136</v>
+      <c r="F30" s="32" t="s">
+        <v>132</v>
       </c>
-      <c r="G30" s="37" t="s">
-        <v>137</v>
+      <c r="G30" s="32" t="s">
+        <v>133</v>
       </c>
-      <c r="H30" s="42" t="s">
-        <v>138</v>
+      <c r="H30" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -3056,8 +3206,8 @@
       <c r="AD30" s="6"/>
     </row>
     <row r="31" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A31" s="26" t="s">
-        <v>113</v>
+      <c r="A31" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -3090,38 +3240,38 @@
       <c r="AD31" s="6"/>
     </row>
     <row r="32" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A32" s="27" t="s">
-        <v>99</v>
+      <c r="A32" s="22" t="s">
+        <v>95</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>17</v>
+      <c r="B32" s="23" t="s">
+        <v>16</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>139</v>
+      <c r="C32" s="24" t="s">
+        <v>135</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>139</v>
+      <c r="D32" s="24" t="s">
+        <v>135</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>139</v>
+      <c r="E32" s="24" t="s">
+        <v>135</v>
       </c>
-      <c r="F32" s="29" t="s">
-        <v>139</v>
+      <c r="F32" s="24" t="s">
+        <v>135</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>139</v>
+      <c r="G32" s="24" t="s">
+        <v>135</v>
       </c>
-      <c r="H32" s="29" t="s">
-        <v>139</v>
+      <c r="H32" s="24" t="s">
+        <v>135</v>
       </c>
-      <c r="I32" s="29" t="s">
-        <v>17</v>
+      <c r="I32" s="24" t="s">
+        <v>16</v>
       </c>
-      <c r="J32" s="29" t="s">
-        <v>17</v>
+      <c r="J32" s="24" t="s">
+        <v>16</v>
       </c>
-      <c r="K32" s="29" t="s">
-        <v>17</v>
+      <c r="K32" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="6"/>
@@ -3144,27 +3294,27 @@
       <c r="AD32" s="6"/>
     </row>
     <row r="33" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A33" s="27" t="s">
-        <v>104</v>
+      <c r="A33" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="41">
+      <c r="C33" s="36">
         <v>0.2</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="36">
         <v>0.3</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="36">
         <v>0.4</v>
       </c>
-      <c r="F33" s="38" t="s">
-        <v>140</v>
+      <c r="F33" s="33" t="s">
+        <v>136</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>141</v>
+      <c r="G33" s="33" t="s">
+        <v>137</v>
       </c>
-      <c r="H33" s="32" t="s">
-        <v>142</v>
+      <c r="H33" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -3190,8 +3340,8 @@
       <c r="AD33" s="6"/>
     </row>
     <row r="34" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A34" s="33" t="s">
-        <v>87</v>
+      <c r="A34" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
